--- a/test_excel/example - 複製A.xlsx
+++ b/test_excel/example - 複製A.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tutorial\Python\find_sum_excel\test_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\python\Find_Sum_-excel\test_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65CF275B-7BD1-49D2-A2B0-33C4D31FD4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27810" yWindow="3165" windowWidth="13710" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27810" yWindow="3165" windowWidth="13710" windowHeight="13545"/>
   </bookViews>
   <sheets>
     <sheet name="dbb" sheetId="2" r:id="rId1"/>
@@ -50,7 +49,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -368,7 +367,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288FF91A-4D15-45CB-B4EF-0FC0D8778191}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -415,7 +414,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
